--- a/data/trans_orig/IPAQ_DICO-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_DICO-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>90527</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75146</v>
+        <v>75531</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107658</v>
+        <v>109888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3081653256486255</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2558060347841246</v>
+        <v>0.257116272512444</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3664830059637316</v>
+        <v>0.3740720579840788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -763,19 +763,19 @@
         <v>30465</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21278</v>
+        <v>20948</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40953</v>
+        <v>41659</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1055230882717544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07370353441134578</v>
+        <v>0.07255823343019052</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1418518900261627</v>
+        <v>0.1442955009439165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -784,19 +784,19 @@
         <v>120992</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99229</v>
+        <v>101620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>139305</v>
+        <v>143412</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2077240593054221</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1703604629587331</v>
+        <v>0.1744648962633987</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2391645733301272</v>
+        <v>0.2462159736530408</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>203234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>186103</v>
+        <v>183873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>218615</v>
+        <v>218230</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6918346743513745</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6335169940362682</v>
+        <v>0.6259279420159212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7441939652158754</v>
+        <v>0.742883727487556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>246</v>
@@ -834,19 +834,19 @@
         <v>258238</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247750</v>
+        <v>247044</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>267425</v>
+        <v>267755</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8944769117282456</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8581481099738374</v>
+        <v>0.8557044990560836</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9262964655886542</v>
+        <v>0.9274417665698095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>431</v>
@@ -855,19 +855,19 @@
         <v>461472</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>443159</v>
+        <v>439052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>483235</v>
+        <v>480844</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7922759406945779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7608354266698727</v>
+        <v>0.7537840263469586</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8296395370412668</v>
+        <v>0.8255351037366011</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>68765</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55202</v>
+        <v>54293</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87286</v>
+        <v>84711</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1368261522136581</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1098376678947583</v>
+        <v>0.1080301805859317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1736782694389907</v>
+        <v>0.1685540653987519</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -980,19 +980,19 @@
         <v>24449</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15845</v>
+        <v>16154</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35493</v>
+        <v>35809</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04674023854111763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03029234648506327</v>
+        <v>0.03088182045538814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06785407449594975</v>
+        <v>0.06845724024070229</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -1001,19 +1001,19 @@
         <v>93214</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76083</v>
+        <v>76429</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114387</v>
+        <v>114655</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0908825360049323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07417987646201295</v>
+        <v>0.07451667195706557</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1115253466564538</v>
+        <v>0.1117866107003694</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>433810</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>415289</v>
+        <v>417864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447373</v>
+        <v>448282</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8631738477863419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8263217305610094</v>
+        <v>0.8314459346012482</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8901623321052418</v>
+        <v>0.8919698194140684</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>460</v>
@@ -1051,19 +1051,19 @@
         <v>498635</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487591</v>
+        <v>487275</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>507239</v>
+        <v>506930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9532597614588824</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9321459255040502</v>
+        <v>0.9315427597592977</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9697076535149366</v>
+        <v>0.9691181795446119</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>869</v>
@@ -1072,19 +1072,19 @@
         <v>932445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>911272</v>
+        <v>911004</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>949576</v>
+        <v>949230</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9091174639950677</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8884746533435463</v>
+        <v>0.8882133892996309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.925820123537987</v>
+        <v>0.9254833280429346</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>38610</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27726</v>
+        <v>28964</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50726</v>
+        <v>51418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1212005171039737</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08703402545286056</v>
+        <v>0.09092128135344502</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1592338485336181</v>
+        <v>0.1614065044735414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1197,19 +1197,19 @@
         <v>10706</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5618</v>
+        <v>5720</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18100</v>
+        <v>19046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03183382159032355</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01670518449402945</v>
+        <v>0.01700918532922346</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05382018398914352</v>
+        <v>0.0566323324350452</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -1218,19 +1218,19 @@
         <v>49316</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38068</v>
+        <v>37125</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65953</v>
+        <v>62970</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07530646084534563</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05813023589683958</v>
+        <v>0.05669021252282677</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1007106900854537</v>
+        <v>0.09615553378024796</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>279955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>267839</v>
+        <v>267147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>290839</v>
+        <v>289601</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8787994828960263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8407661514663821</v>
+        <v>0.8385934955264589</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9129659745471395</v>
+        <v>0.9090787186465551</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -1268,19 +1268,19 @@
         <v>325603</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318209</v>
+        <v>317263</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330691</v>
+        <v>330589</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9681661784096764</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9461798160108564</v>
+        <v>0.9433676675649535</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9832948155059705</v>
+        <v>0.9829908146707765</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>616</v>
@@ -1289,19 +1289,19 @@
         <v>605558</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>588921</v>
+        <v>591904</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>616806</v>
+        <v>617749</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9246935391546544</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.899289309914546</v>
+        <v>0.9038444662197517</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9418697641031604</v>
+        <v>0.9433097874771729</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>62342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49463</v>
+        <v>49414</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78872</v>
+        <v>77592</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1685091749189397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1336964765711586</v>
+        <v>0.133564883052516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2131870947943285</v>
+        <v>0.2097297115614433</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1414,19 +1414,19 @@
         <v>30536</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20623</v>
+        <v>21432</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44369</v>
+        <v>42209</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07884614108220411</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05324977164007461</v>
+        <v>0.05533909588016261</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1145639396996587</v>
+        <v>0.1089879868721016</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -1435,19 +1435,19 @@
         <v>92878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76150</v>
+        <v>76572</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>113918</v>
+        <v>112983</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1226523159892113</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1005617612610464</v>
+        <v>0.1011184028182453</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1504372983861349</v>
+        <v>0.1492026561458203</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>307622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291092</v>
+        <v>292372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320501</v>
+        <v>320550</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8314908250810603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7868129052056717</v>
+        <v>0.7902702884385568</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8663035234288415</v>
+        <v>0.8664351169474841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>330</v>
@@ -1485,19 +1485,19 @@
         <v>356747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342914</v>
+        <v>345074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366660</v>
+        <v>365851</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9211538589177959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8854360603003413</v>
+        <v>0.8910120131278985</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9467502283599254</v>
+        <v>0.9446609041198374</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>625</v>
@@ -1506,19 +1506,19 @@
         <v>664369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>643329</v>
+        <v>644264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>681097</v>
+        <v>680675</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8773476840107888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8495627016138652</v>
+        <v>0.8507973438541796</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8994382387389537</v>
+        <v>0.8988815971817546</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>32043</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23033</v>
+        <v>22747</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43427</v>
+        <v>42965</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1517028854179309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1090473182524229</v>
+        <v>0.1076941485454193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2055988944348199</v>
+        <v>0.2034134430384541</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1631,19 +1631,19 @@
         <v>16811</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10482</v>
+        <v>10289</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25078</v>
+        <v>25124</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07690890352281031</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04795484788429018</v>
+        <v>0.04707054521031669</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1147278892210313</v>
+        <v>0.1149404043031046</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -1652,19 +1652,19 @@
         <v>48854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37275</v>
+        <v>36675</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>63465</v>
+        <v>62503</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.113664988992687</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0867239366193171</v>
+        <v>0.08532858162406838</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1476579574554472</v>
+        <v>0.1454201028815313</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>179178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167794</v>
+        <v>168256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188188</v>
+        <v>188474</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.848297114582069</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7944011055651801</v>
+        <v>0.7965865569615461</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8909526817475768</v>
+        <v>0.8923058514545809</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>205</v>
@@ -1702,19 +1702,19 @@
         <v>201776</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193509</v>
+        <v>193463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208105</v>
+        <v>208298</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9230910964771897</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8852721107789692</v>
+        <v>0.8850595956968954</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9520451521157098</v>
+        <v>0.9529294547896832</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>385</v>
@@ -1723,19 +1723,19 @@
         <v>380954</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>366343</v>
+        <v>367305</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>392533</v>
+        <v>393133</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.886335011007313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8523420425445528</v>
+        <v>0.8545798971184687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9132760633806829</v>
+        <v>0.9146714183759318</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>27784</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19096</v>
+        <v>18952</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38808</v>
+        <v>39697</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1055926201138401</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07257252826758526</v>
+        <v>0.07202874107897667</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.147489031414228</v>
+        <v>0.1508701274804251</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1848,19 +1848,19 @@
         <v>15690</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8530</v>
+        <v>9349</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24084</v>
+        <v>24819</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05745010035666727</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03123065739276329</v>
+        <v>0.03422934890948583</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08818084567495202</v>
+        <v>0.09087279286859322</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1869,19 +1869,19 @@
         <v>43474</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31609</v>
+        <v>32728</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56299</v>
+        <v>58464</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08107282794347981</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05894521875356382</v>
+        <v>0.06103210697952823</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1049883906388925</v>
+        <v>0.1090264962869627</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>235339</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224315</v>
+        <v>223426</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244027</v>
+        <v>244171</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8944073798861599</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8525109685857721</v>
+        <v>0.8491298725195751</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.927427471732415</v>
+        <v>0.9279712589210237</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>247</v>
@@ -1919,19 +1919,19 @@
         <v>257425</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>249031</v>
+        <v>248296</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>264585</v>
+        <v>263766</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9425498996433327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9118191543250479</v>
+        <v>0.9091272071314068</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9687693426072365</v>
+        <v>0.9657706510905144</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>479</v>
@@ -1940,19 +1940,19 @@
         <v>492764</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>479939</v>
+        <v>477774</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>504629</v>
+        <v>503510</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9189271720565202</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8950116093611075</v>
+        <v>0.8909735037130373</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9410547812464362</v>
+        <v>0.9389678930204718</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>91718</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73192</v>
+        <v>74282</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110132</v>
+        <v>113190</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1396958166647202</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1114781366255269</v>
+        <v>0.1131382887768151</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1677414135284858</v>
+        <v>0.1723992300687605</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -2065,19 +2065,19 @@
         <v>46498</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34404</v>
+        <v>34695</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61308</v>
+        <v>60917</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06726239156000124</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04976787555860673</v>
+        <v>0.05018869414716882</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08868622983229886</v>
+        <v>0.08812017325153529</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>125</v>
@@ -2086,19 +2086,19 @@
         <v>138216</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>117282</v>
+        <v>116491</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>161375</v>
+        <v>163057</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1025457495210544</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08701417677289484</v>
+        <v>0.08642691162730146</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1197277684413121</v>
+        <v>0.1209754170821886</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>564840</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>546426</v>
+        <v>543368</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>583366</v>
+        <v>582276</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8603041833352798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8322585864715141</v>
+        <v>0.8276007699312395</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.888521863374473</v>
+        <v>0.8868617112231849</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>603</v>
@@ -2136,19 +2136,19 @@
         <v>644796</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>629986</v>
+        <v>630377</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>656890</v>
+        <v>656599</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9327376084399988</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9113137701677011</v>
+        <v>0.9118798267484647</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9502321244413933</v>
+        <v>0.9498113058528312</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1101</v>
@@ -2157,19 +2157,19 @@
         <v>1209636</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1186477</v>
+        <v>1184795</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1230570</v>
+        <v>1231361</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8974542504789456</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8802722315586879</v>
+        <v>0.8790245829178114</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9129858232271051</v>
+        <v>0.9135730883726986</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>64745</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50796</v>
+        <v>50331</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81282</v>
+        <v>82492</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08315683810582458</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06524098889167869</v>
+        <v>0.06464399601222949</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1043977302427817</v>
+        <v>0.1059515579304398</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -2282,19 +2282,19 @@
         <v>22238</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13565</v>
+        <v>13811</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33524</v>
+        <v>34257</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02691699240479683</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01641926758534023</v>
+        <v>0.01671708328957239</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04057790265658713</v>
+        <v>0.04146483321512195</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>84</v>
@@ -2303,19 +2303,19 @@
         <v>86982</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69608</v>
+        <v>69949</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>104977</v>
+        <v>105201</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05420310403477746</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04337638253040465</v>
+        <v>0.04358891349918674</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06541620871166808</v>
+        <v>0.06555630393854039</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>713838</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>697301</v>
+        <v>696091</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>727787</v>
+        <v>728252</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9168431618941754</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8956022697572182</v>
+        <v>0.8940484420695602</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9347590111083213</v>
+        <v>0.9353560039877705</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>734</v>
@@ -2353,19 +2353,19 @@
         <v>803929</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>792643</v>
+        <v>791910</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>812602</v>
+        <v>812356</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9730830075952032</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9594220973434129</v>
+        <v>0.9585351667848782</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9835807324146598</v>
+        <v>0.9832829167104277</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1421</v>
@@ -2374,19 +2374,19 @@
         <v>1517768</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1499773</v>
+        <v>1499549</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1535142</v>
+        <v>1534801</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9457968959652225</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9345837912883319</v>
+        <v>0.9344436960614596</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9566236174695953</v>
+        <v>0.9564110865008133</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>476535</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>436527</v>
+        <v>437981</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>518459</v>
+        <v>516767</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1403905067155106</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1286040901304634</v>
+        <v>0.1290324943362736</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1527417490379025</v>
+        <v>0.1522432629283079</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>192</v>
@@ -2499,19 +2499,19 @@
         <v>197393</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>169849</v>
+        <v>173590</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>224760</v>
+        <v>227121</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05568941290022587</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04791853468411063</v>
+        <v>0.04897385118138771</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06341018957301164</v>
+        <v>0.06407620771999326</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>642</v>
@@ -2520,19 +2520,19 @@
         <v>673928</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>626394</v>
+        <v>621450</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>728650</v>
+        <v>724559</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09712328630252978</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09027292835624214</v>
+        <v>0.08956043061694993</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1050095672939261</v>
+        <v>0.1044199304806835</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>2917815</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2875891</v>
+        <v>2877583</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2957823</v>
+        <v>2956369</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8596094932844894</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8472582509620975</v>
+        <v>0.8477567370716919</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8713959098695366</v>
+        <v>0.8709675056637259</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3146</v>
@@ -2570,19 +2570,19 @@
         <v>3347149</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3319782</v>
+        <v>3317421</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3374693</v>
+        <v>3370952</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9443105870997741</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9365898104269877</v>
+        <v>0.9359237922800067</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9520814653158893</v>
+        <v>0.951026148818612</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5927</v>
@@ -2591,19 +2591,19 @@
         <v>6264964</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6210242</v>
+        <v>6214333</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6312498</v>
+        <v>6317442</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9028767136974702</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8949904327060738</v>
+        <v>0.8955800695193165</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9097270716437579</v>
+        <v>0.9104395693830497</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>70809</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54906</v>
+        <v>55094</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89602</v>
+        <v>88358</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2220789977400209</v>
+        <v>0.222078997740021</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1722022090481334</v>
+        <v>0.1727914461230752</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2810217374566008</v>
+        <v>0.2771179452313431</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -2960,19 +2960,19 @@
         <v>31900</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24229</v>
+        <v>24364</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44064</v>
+        <v>42779</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1009302909248082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07665887910143344</v>
+        <v>0.07708580473717565</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1394152270466023</v>
+        <v>0.1353489526721548</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -2981,19 +2981,19 @@
         <v>102709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85476</v>
+        <v>85183</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123182</v>
+        <v>123410</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1617703177922974</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1346273035383517</v>
+        <v>0.1341668954948041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1940161480463157</v>
+        <v>0.1943748778008731</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>248036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>229243</v>
+        <v>230487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263939</v>
+        <v>263751</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.777921002259979</v>
+        <v>0.7779210022599791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7189782625433994</v>
+        <v>0.722882054768657</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8277977909518667</v>
+        <v>0.8272085538769248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>484</v>
@@ -3031,19 +3031,19 @@
         <v>284161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271997</v>
+        <v>273282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>291832</v>
+        <v>291697</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8990697090751918</v>
+        <v>0.8990697090751919</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.860584772953397</v>
+        <v>0.864651047327845</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9233411208985665</v>
+        <v>0.9229141952628245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>750</v>
@@ -3052,19 +3052,19 @@
         <v>532197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>511724</v>
+        <v>511496</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>549430</v>
+        <v>549723</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8382296822077028</v>
+        <v>0.8382296822077026</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8059838519536844</v>
+        <v>0.8056251221991269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8653726964616482</v>
+        <v>0.8658331045051959</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>152863</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128461</v>
+        <v>126495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>180253</v>
+        <v>180882</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2880694909278911</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2420839399339187</v>
+        <v>0.2383782757727112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3396855906904143</v>
+        <v>0.3408712664067038</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>202</v>
@@ -3177,19 +3177,19 @@
         <v>151928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132008</v>
+        <v>133416</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>171440</v>
+        <v>171578</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2780045492216198</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2415539634697249</v>
+        <v>0.2441298560366451</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.313709555053048</v>
+        <v>0.3139607063568338</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>312</v>
@@ -3198,19 +3198,19 @@
         <v>304791</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>270398</v>
+        <v>273416</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>334200</v>
+        <v>337277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2829629803242473</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2510330975690332</v>
+        <v>0.253834497221553</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3102657606628622</v>
+        <v>0.3131228285476629</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>377784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350394</v>
+        <v>349765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>402186</v>
+        <v>404152</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7119305090721089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6603144093095855</v>
+        <v>0.6591287335932962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7579160600660813</v>
+        <v>0.7616217242272887</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>515</v>
@@ -3248,19 +3248,19 @@
         <v>394566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>375054</v>
+        <v>374916</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>414486</v>
+        <v>413078</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7219954507783802</v>
+        <v>0.7219954507783801</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6862904449469523</v>
+        <v>0.6860392936431663</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7584460365302752</v>
+        <v>0.7558701439633549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>787</v>
@@ -3269,19 +3269,19 @@
         <v>772350</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>742941</v>
+        <v>739864</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>806743</v>
+        <v>803725</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7170370196757528</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6897342393371377</v>
+        <v>0.6868771714523372</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7489669024309668</v>
+        <v>0.746165502778447</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>52748</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41355</v>
+        <v>40004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66619</v>
+        <v>67426</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1669271993511571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1308742973341474</v>
+        <v>0.1265961967090196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2108256922039233</v>
+        <v>0.2133778892740676</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3394,19 +3394,19 @@
         <v>35993</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26872</v>
+        <v>26671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47188</v>
+        <v>45872</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1009946305425578</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07540123318330556</v>
+        <v>0.07483911581180575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1324077943866935</v>
+        <v>0.1287164453170641</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -3415,19 +3415,19 @@
         <v>88741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73815</v>
+        <v>74504</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106947</v>
+        <v>107707</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1319807106725474</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1097828799962857</v>
+        <v>0.1108068817001179</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1590591694012257</v>
+        <v>0.160188173168069</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>263245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>249374</v>
+        <v>248567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>274638</v>
+        <v>275989</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8330728006488429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7891743077960767</v>
+        <v>0.7866221107259321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8691257026658528</v>
+        <v>0.87340380329098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>487</v>
@@ -3465,19 +3465,19 @@
         <v>320388</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>309193</v>
+        <v>310509</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329509</v>
+        <v>329710</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8990053694574422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8675922056133064</v>
+        <v>0.8712835546829361</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9245987668166945</v>
+        <v>0.9251608841881944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>790</v>
@@ -3486,19 +3486,19 @@
         <v>583634</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>565428</v>
+        <v>564668</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>598560</v>
+        <v>597871</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8680192893274529</v>
+        <v>0.8680192893274526</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8409408305987742</v>
+        <v>0.839811826831931</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8902171200037143</v>
+        <v>0.8891931182998819</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>98934</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78576</v>
+        <v>78480</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122785</v>
+        <v>120675</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.265136624692136</v>
+        <v>0.2651366246921361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2105772588866451</v>
+        <v>0.2103211244516659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3290546379292922</v>
+        <v>0.3234010904019674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -3611,19 +3611,19 @@
         <v>63279</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49282</v>
+        <v>50455</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79945</v>
+        <v>81171</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1499647717270746</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1167920981881217</v>
+        <v>0.11957282541304</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.189460302651249</v>
+        <v>0.1923668617230312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -3632,19 +3632,19 @@
         <v>162214</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136319</v>
+        <v>137040</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>190201</v>
+        <v>191457</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2040151661148454</v>
+        <v>0.2040151661148453</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1714477156580666</v>
+        <v>0.17235451946254</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2392138228327911</v>
+        <v>0.240794095210695</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>274211</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>250360</v>
+        <v>252470</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>294569</v>
+        <v>294665</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7348633753078641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6709453620707078</v>
+        <v>0.6765989095980326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7894227411133548</v>
+        <v>0.7896788755483339</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>520</v>
@@ -3682,19 +3682,19 @@
         <v>358682</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342016</v>
+        <v>340790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>372679</v>
+        <v>371506</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8500352282729254</v>
+        <v>0.8500352282729255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8105396973487509</v>
+        <v>0.8076331382769688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8832079018118781</v>
+        <v>0.8804271745869602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>727</v>
@@ -3703,19 +3703,19 @@
         <v>632893</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>604906</v>
+        <v>603650</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>658788</v>
+        <v>658067</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7959848338851546</v>
+        <v>0.7959848338851545</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.760786177167209</v>
+        <v>0.7592059047893048</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8285522843419336</v>
+        <v>0.8276454805374598</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>132637</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120690</v>
+        <v>120757</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>143933</v>
+        <v>144265</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6449201214108295</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5868298910394379</v>
+        <v>0.5871520094306866</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6998441101168431</v>
+        <v>0.7014558554007033</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>295</v>
@@ -3828,19 +3828,19 @@
         <v>135531</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>124112</v>
+        <v>124446</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>146351</v>
+        <v>145971</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.59204955839004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5421686278009372</v>
+        <v>0.5436253763501259</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.639315242579172</v>
+        <v>0.6376554801055991</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>471</v>
@@ -3849,19 +3849,19 @@
         <v>268168</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>251804</v>
+        <v>251719</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>284100</v>
+        <v>283493</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.61707038703967</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5794176635479352</v>
+        <v>0.5792206581852624</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6537320429431898</v>
+        <v>0.6523349004155343</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>73028</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61732</v>
+        <v>61400</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84975</v>
+        <v>84908</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3550798785891704</v>
+        <v>0.3550798785891705</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.300155889883157</v>
+        <v>0.2985441445992966</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.413170108960562</v>
+        <v>0.4128479905693133</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>200</v>
@@ -3899,19 +3899,19 @@
         <v>93387</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>82567</v>
+        <v>82947</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>104806</v>
+        <v>104472</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.40795044160996</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3606847574208276</v>
+        <v>0.3623445198944008</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4578313721990624</v>
+        <v>0.4563746236498739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>303</v>
@@ -3920,19 +3920,19 @@
         <v>166414</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>150482</v>
+        <v>151089</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>182778</v>
+        <v>182863</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.38292961296033</v>
+        <v>0.3829296129603301</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3462679570568102</v>
+        <v>0.3476650995844656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4205823364520649</v>
+        <v>0.4207793418147379</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>35849</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26086</v>
+        <v>24722</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49895</v>
+        <v>47592</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.132428474204498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09636368406153874</v>
+        <v>0.0913221100215815</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1843142167649677</v>
+        <v>0.1758068870157675</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -4045,19 +4045,19 @@
         <v>15280</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9656</v>
+        <v>9497</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23134</v>
+        <v>22567</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05793405631162295</v>
+        <v>0.05793405631162291</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03660854982438044</v>
+        <v>0.03600647808362886</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0877108520725122</v>
+        <v>0.08556105446876316</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -4066,19 +4066,19 @@
         <v>51129</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38852</v>
+        <v>39026</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64166</v>
+        <v>65182</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09566608827668997</v>
+        <v>0.09566608827668999</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07269444105570548</v>
+        <v>0.07301960958580575</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1200585443097591</v>
+        <v>0.1219595865614916</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>234858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>220812</v>
+        <v>223115</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244621</v>
+        <v>245985</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.867571525795502</v>
+        <v>0.8675715257955019</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8156857832350323</v>
+        <v>0.8241931129842323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9036363159384611</v>
+        <v>0.9086778899784184</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>439</v>
@@ -4116,19 +4116,19 @@
         <v>248470</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240616</v>
+        <v>241183</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>254094</v>
+        <v>254253</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9420659436883773</v>
+        <v>0.9420659436883768</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9122891479274879</v>
+        <v>0.9144389455312371</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9633914501756196</v>
+        <v>0.9639935219163712</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>773</v>
@@ -4137,19 +4137,19 @@
         <v>483328</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>470291</v>
+        <v>469275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>495605</v>
+        <v>495431</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9043339117233101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8799414556902405</v>
+        <v>0.8780404134385085</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9273055589442946</v>
+        <v>0.9269803904141942</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>254563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>225421</v>
+        <v>224425</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>286974</v>
+        <v>287455</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3537130021618073</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3132208616033288</v>
+        <v>0.311837445480659</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.39874839000034</v>
+        <v>0.3994168540098325</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>210</v>
@@ -4262,19 +4262,19 @@
         <v>175610</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>153994</v>
+        <v>152078</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199824</v>
+        <v>198867</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2274568207609655</v>
+        <v>0.2274568207609656</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1994599022882059</v>
+        <v>0.1969774587873825</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2588200513852436</v>
+        <v>0.2575806758695916</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>408</v>
@@ -4283,19 +4283,19 @@
         <v>430172</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>389666</v>
+        <v>396797</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>471528</v>
+        <v>472320</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2883687127703477</v>
+        <v>0.2883687127703478</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2612148949118407</v>
+        <v>0.2659956750806818</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3160920991408459</v>
+        <v>0.3166228895959321</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>465124</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>432713</v>
+        <v>432232</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>494266</v>
+        <v>495262</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6462869978381928</v>
+        <v>0.6462869978381929</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.60125160999966</v>
+        <v>0.6005831459901675</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6867791383966712</v>
+        <v>0.6881625545193409</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>750</v>
@@ -4333,19 +4333,19 @@
         <v>596447</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>572233</v>
+        <v>573190</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>618063</v>
+        <v>619979</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7725431792390344</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7411799486147564</v>
+        <v>0.7424193241304081</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.800540097711794</v>
+        <v>0.8030225412126174</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1151</v>
@@ -4354,19 +4354,19 @@
         <v>1061572</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1020216</v>
+        <v>1019424</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1102078</v>
+        <v>1094947</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7116312872296523</v>
+        <v>0.7116312872296524</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6839079008591541</v>
+        <v>0.6833771104040679</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7387851050881591</v>
+        <v>0.7340043249193182</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>157805</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>132699</v>
+        <v>133030</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>185328</v>
+        <v>184726</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1977332664452931</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1662742915868667</v>
+        <v>0.166689102788271</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2322198710626549</v>
+        <v>0.23146487466774</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -4479,19 +4479,19 @@
         <v>47289</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36112</v>
+        <v>36046</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62040</v>
+        <v>61919</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05688296272597253</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04343822133104711</v>
+        <v>0.04335922948070626</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07462723043155686</v>
+        <v>0.07448223939561643</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>180</v>
@@ -4500,19 +4500,19 @@
         <v>205094</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>179243</v>
+        <v>178222</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>238548</v>
+        <v>237013</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.125870588931697</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1100053480788824</v>
+        <v>0.1093789560139441</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1464023535672975</v>
+        <v>0.1454597229480878</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>640267</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>612744</v>
+        <v>613346</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>665373</v>
+        <v>665042</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8022667335547068</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7677801289373452</v>
+        <v>0.7685351253322604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8337257084131333</v>
+        <v>0.8333108972117292</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1007</v>
@@ -4550,19 +4550,19 @@
         <v>784042</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>769291</v>
+        <v>769412</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>795219</v>
+        <v>795285</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9431170372740275</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9253727695684431</v>
+        <v>0.9255177606043835</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.956561778668953</v>
+        <v>0.9566407705192937</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1644</v>
@@ -4571,19 +4571,19 @@
         <v>1424309</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1390855</v>
+        <v>1392390</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1450160</v>
+        <v>1451181</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.874129411068303</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8535976464327024</v>
+        <v>0.8545402770519122</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8899946519211176</v>
+        <v>0.8906210439860558</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>956209</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>893638</v>
+        <v>896300</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1011882</v>
+        <v>1012211</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2706690059288557</v>
+        <v>0.2706690059288558</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2529573915460782</v>
+        <v>0.2537109369915268</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2864280216038383</v>
+        <v>0.2865210698757321</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>965</v>
@@ -4696,19 +4696,19 @@
         <v>656809</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>620830</v>
+        <v>612203</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>702598</v>
+        <v>697856</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1757604800294488</v>
+        <v>0.1757604800294487</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1661325182115049</v>
+        <v>0.1638240118585944</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1880135284967336</v>
+        <v>0.1867445756792352</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1818</v>
@@ -4717,19 +4717,19 @@
         <v>1613018</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1548330</v>
+        <v>1543421</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1698733</v>
+        <v>1681346</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2218818445557238</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2129835114569181</v>
+        <v>0.2123082676928461</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.23367255932033</v>
+        <v>0.2312808462134314</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>2576553</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2520880</v>
+        <v>2520551</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2639124</v>
+        <v>2636462</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7293309940711443</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7135719783961617</v>
+        <v>0.7134789301242678</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7470426084539218</v>
+        <v>0.746289063008473</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4402</v>
@@ -4767,19 +4767,19 @@
         <v>3080145</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3034356</v>
+        <v>3039098</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3116124</v>
+        <v>3124751</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8242395199705512</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8119864715032663</v>
+        <v>0.8132554243207649</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8338674817884951</v>
+        <v>0.8361759881414056</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6925</v>
@@ -4788,19 +4788,19 @@
         <v>5656698</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5570983</v>
+        <v>5588370</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5721386</v>
+        <v>5726295</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7781181554442761</v>
+        <v>0.778118155444276</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7663274406796695</v>
+        <v>0.7687191537865681</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7870164885430819</v>
+        <v>0.7876917323071534</v>
       </c>
     </row>
     <row r="30">
